--- a/REGULAR/HRMO/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/HRMO/AUDITOR, AILEEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\HRMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\HRMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE3359C-19E8-4123-A7BA-FCFE85BD2D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="179">
   <si>
     <t>PERIOD</t>
   </si>
@@ -576,7 +577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1436,7 +1437,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1480,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1544,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1604,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1670,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1733,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1831,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1890,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1955,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +1998,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2073,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2259,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2325,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2383,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2449,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2505,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2580,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2623,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2689,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2745,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2843,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,7 +2906,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2954,7 +2955,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2971,26 +2972,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K243" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K243"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K243" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K243" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3002,13 +3003,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3017,14 +3018,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3328,7 +3329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3338,7 +3339,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3346,34 +3347,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3675" topLeftCell="A225" activePane="bottomLeft"/>
+      <pane ySplit="3672" topLeftCell="A234" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="P238" sqref="P238"/>
+      <selection pane="bottomLeft" activeCell="K243" sqref="K243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3397,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3416,7 +3417,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3438,7 +3439,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3446,7 +3447,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3459,7 +3460,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3476,7 +3477,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3530,12 +3531,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3557,7 +3558,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>40756</v>
       </c>
@@ -3577,7 +3578,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>40787</v>
       </c>
@@ -3597,7 +3598,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40817</v>
       </c>
@@ -3617,7 +3618,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40848</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>40878</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>44</v>
       </c>
@@ -3687,7 +3688,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>40909</v>
       </c>
@@ -3707,7 +3708,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>40940</v>
       </c>
@@ -3729,7 +3730,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40969</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>41001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>41000</v>
       </c>
@@ -3773,7 +3774,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>41030</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>41061</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>41091</v>
       </c>
@@ -3845,7 +3846,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>41122</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>55</v>
@@ -3893,7 +3894,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>41153</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>55</v>
@@ -3941,7 +3942,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>56</v>
@@ -3961,7 +3962,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3977,7 +3978,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>41183</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>55</v>
@@ -4025,7 +4026,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>61</v>
@@ -4045,7 +4046,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4061,7 +4062,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>41214</v>
       </c>
@@ -4081,7 +4082,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>41244</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>64</v>
@@ -4129,7 +4130,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>45</v>
       </c>
@@ -4147,7 +4148,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>41275</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -4197,7 +4198,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>41306</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>56</v>
@@ -4245,7 +4246,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>41334</v>
       </c>
@@ -4269,7 +4270,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>41365</v>
       </c>
@@ -4293,7 +4294,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>67</v>
@@ -4315,7 +4316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>41395</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4363,7 +4364,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>41426</v>
       </c>
@@ -4389,7 +4390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>41456</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>41487</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>41518</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>78</v>
@@ -4487,7 +4488,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>41548</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>56</v>
@@ -4533,7 +4534,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>79</v>
@@ -4553,7 +4554,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>41579</v>
       </c>
@@ -4577,7 +4578,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>41609</v>
       </c>
@@ -4601,7 +4602,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>54</v>
       </c>
@@ -4619,7 +4620,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>41640</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -4667,7 +4668,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>81</v>
@@ -4691,7 +4692,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>82</v>
@@ -4711,7 +4712,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>67</v>
@@ -4733,7 +4734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>41671</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>41699</v>
       </c>
@@ -4787,7 +4788,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>41730</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>84</v>
@@ -4833,7 +4834,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>67</v>
@@ -4855,7 +4856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>41760</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>65</v>
@@ -4903,7 +4904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>95</v>
@@ -4923,7 +4924,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>41791</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>96</v>
@@ -4966,7 +4967,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>41821</v>
       </c>
@@ -4990,7 +4991,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>41852</v>
       </c>
@@ -5014,7 +5015,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>41883</v>
       </c>
@@ -5038,7 +5039,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>41913</v>
       </c>
@@ -5062,7 +5063,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>41944</v>
       </c>
@@ -5086,7 +5087,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>102</v>
@@ -5108,7 +5109,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41974</v>
       </c>
@@ -5132,7 +5133,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>53</v>
       </c>
@@ -5152,7 +5153,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>42005</v>
       </c>
@@ -5176,7 +5177,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>67</v>
@@ -5198,7 +5199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
         <v>108</v>
       </c>
@@ -5222,7 +5223,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>42064</v>
       </c>
@@ -5244,7 +5245,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>42095</v>
       </c>
@@ -5268,7 +5269,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>42125</v>
       </c>
@@ -5292,7 +5293,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>42156</v>
       </c>
@@ -5316,7 +5317,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>42186</v>
       </c>
@@ -5340,7 +5341,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>55</v>
@@ -5362,7 +5363,7 @@
         <v>42199</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>42217</v>
       </c>
@@ -5386,7 +5387,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>114</v>
@@ -5408,7 +5409,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>42248</v>
       </c>
@@ -5432,7 +5433,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>42278</v>
       </c>
@@ -5456,7 +5457,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>42309</v>
       </c>
@@ -5480,7 +5481,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>42339</v>
       </c>
@@ -5504,7 +5505,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="47" t="s">
         <v>52</v>
       </c>
@@ -5524,7 +5525,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>42370</v>
       </c>
@@ -5544,7 +5545,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>42401</v>
       </c>
@@ -5564,7 +5565,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>42430</v>
       </c>
@@ -5584,7 +5585,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>42461</v>
       </c>
@@ -5604,7 +5605,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>42491</v>
       </c>
@@ -5624,7 +5625,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>42522</v>
       </c>
@@ -5644,7 +5645,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>42552</v>
       </c>
@@ -5664,7 +5665,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>42583</v>
       </c>
@@ -5684,7 +5685,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>42614</v>
       </c>
@@ -5704,7 +5705,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>42644</v>
       </c>
@@ -5724,7 +5725,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>42675</v>
       </c>
@@ -5744,7 +5745,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>42705</v>
       </c>
@@ -5768,7 +5769,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
         <v>51</v>
       </c>
@@ -5790,7 +5791,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>42736</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>42767</v>
       </c>
@@ -5836,7 +5837,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>42795</v>
       </c>
@@ -5856,7 +5857,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>42826</v>
       </c>
@@ -5876,7 +5877,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>42856</v>
       </c>
@@ -5896,7 +5897,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>42887</v>
       </c>
@@ -5916,7 +5917,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>42917</v>
       </c>
@@ -5936,7 +5937,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>42948</v>
       </c>
@@ -5956,7 +5957,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>42979</v>
       </c>
@@ -5976,7 +5977,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>43009</v>
       </c>
@@ -5996,7 +5997,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>43040</v>
       </c>
@@ -6016,7 +6017,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>43070</v>
       </c>
@@ -6040,7 +6041,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="47" t="s">
         <v>50</v>
       </c>
@@ -6062,7 +6063,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>43101</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>43132</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>43160</v>
       </c>
@@ -6140,7 +6141,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>43191</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>43221</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>43252</v>
       </c>
@@ -6212,7 +6213,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>43282</v>
       </c>
@@ -6232,7 +6233,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>43313</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>43344</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>43374</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>67</v>
@@ -6332,7 +6333,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>43405</v>
       </c>
@@ -6352,7 +6353,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>43435</v>
       </c>
@@ -6376,7 +6377,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>55</v>
@@ -6398,7 +6399,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="47" t="s">
         <v>49</v>
       </c>
@@ -6420,7 +6421,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>43466</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>55</v>
@@ -6468,7 +6469,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>78</v>
@@ -6490,7 +6491,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>43497</v>
       </c>
@@ -6516,7 +6517,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>43525</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>55</v>
@@ -6564,7 +6565,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>55</v>
@@ -6586,7 +6587,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>43556</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>55</v>
@@ -6634,7 +6635,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>43586</v>
       </c>
@@ -6654,7 +6655,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>43617</v>
       </c>
@@ -6674,7 +6675,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>43647</v>
       </c>
@@ -6700,7 +6701,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>43678</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>43709</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>67</v>
@@ -6774,7 +6775,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>59</v>
@@ -6796,7 +6797,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>43739</v>
       </c>
@@ -6816,7 +6817,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>43770</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>56</v>
@@ -6862,7 +6863,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>67</v>
@@ -6884,7 +6885,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>43800</v>
       </c>
@@ -6908,7 +6909,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
         <v>48</v>
       </c>
@@ -6930,7 +6931,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>43831</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>43862</v>
       </c>
@@ -6974,7 +6975,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>43891</v>
       </c>
@@ -6994,7 +6995,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>43922</v>
       </c>
@@ -7014,7 +7015,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>43952</v>
       </c>
@@ -7034,7 +7035,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>43983</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>55</v>
@@ -7082,7 +7083,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>44013</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>67</v>
@@ -7130,7 +7131,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>44044</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>44075</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>44105</v>
       </c>
@@ -7202,7 +7203,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>44136</v>
       </c>
@@ -7222,7 +7223,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>44166</v>
       </c>
@@ -7246,7 +7247,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="47" t="s">
         <v>47</v>
       </c>
@@ -7268,7 +7269,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>44197</v>
       </c>
@@ -7288,7 +7289,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>44228</v>
       </c>
@@ -7308,7 +7309,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>44256</v>
       </c>
@@ -7328,7 +7329,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>44287</v>
       </c>
@@ -7348,7 +7349,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>44317</v>
       </c>
@@ -7368,7 +7369,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>44348</v>
       </c>
@@ -7388,7 +7389,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>44378</v>
       </c>
@@ -7408,7 +7409,7 @@
       <c r="J181" s="12"/>
       <c r="K181" s="15"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>44409</v>
       </c>
@@ -7428,7 +7429,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>44440</v>
       </c>
@@ -7448,7 +7449,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>44470</v>
       </c>
@@ -7468,7 +7469,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>44501</v>
       </c>
@@ -7488,7 +7489,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>44531</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>119</v>
@@ -7532,7 +7533,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="47" t="s">
         <v>46</v>
       </c>
@@ -7554,7 +7555,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>44562</v>
       </c>
@@ -7574,7 +7575,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>44593</v>
       </c>
@@ -7594,7 +7595,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>44621</v>
       </c>
@@ -7614,7 +7615,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>44652</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>67</v>
@@ -7662,7 +7663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>56</v>
@@ -7682,7 +7683,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>67</v>
@@ -7704,7 +7705,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>44682</v>
       </c>
@@ -7724,7 +7725,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>44713</v>
       </c>
@@ -7744,7 +7745,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>44743</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>44774</v>
       </c>
@@ -7796,7 +7797,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>44805</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>44835</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>44866</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>44896</v>
       </c>
@@ -7898,7 +7899,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>167</v>
@@ -7918,7 +7919,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
         <v>152</v>
       </c>
@@ -7936,7 +7937,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>44927</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>67</v>
@@ -7984,7 +7985,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>59</v>
@@ -8006,7 +8007,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>44958</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>55</v>
@@ -8054,7 +8055,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>55</v>
@@ -8076,7 +8077,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>44986</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>45017</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>45047</v>
       </c>
@@ -8154,7 +8155,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>55</v>
@@ -8176,7 +8177,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>67</v>
@@ -8198,7 +8199,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>45078</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>55</v>
@@ -8246,7 +8247,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>67</v>
@@ -8268,7 +8269,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>45108</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>45139</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>67</v>
@@ -8342,7 +8343,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>55</v>
@@ -8364,7 +8365,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>45170</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>165</v>
@@ -8412,7 +8413,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>67</v>
@@ -8434,7 +8435,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>45200</v>
       </c>
@@ -8460,7 +8461,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>59</v>
@@ -8482,7 +8483,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>172</v>
@@ -8504,7 +8505,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>45231</v>
       </c>
@@ -8530,7 +8531,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>55</v>
@@ -8552,7 +8553,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>55</v>
@@ -8574,7 +8575,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>45261</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>61</v>
@@ -8620,7 +8621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>178</v>
@@ -8640,7 +8641,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="48"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="47" t="s">
         <v>164</v>
       </c>
@@ -8658,7 +8659,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>45292</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>45320</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>67</v>
@@ -8706,7 +8707,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>55</v>
@@ -8728,7 +8729,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>55</v>
@@ -8750,7 +8751,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>55</v>
@@ -8772,11 +8773,13 @@
         <v>45313</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>45323</v>
       </c>
-      <c r="B242" s="20"/>
+      <c r="B242" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39"/>
       <c r="E242" s="9"/>
@@ -8785,12 +8788,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H242" s="39"/>
+      <c r="H242" s="39">
+        <v>1</v>
+      </c>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="20"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K242" s="48">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="49"/>
       <c r="B243" s="15"/>
       <c r="C243" s="41"/>
@@ -8821,10 +8828,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8847,7 +8854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8855,21 +8862,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8882,7 +8889,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8911,7 +8918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -8937,17 +8944,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>176</v>
       </c>
@@ -8971,10 +8978,10 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>115.28299999999999</v>
+        <v>114.28299999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -9002,7 +9009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9028,7 +9035,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9054,7 +9061,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9080,7 +9087,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9106,7 +9113,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9132,7 +9139,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9158,7 +9165,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9184,7 +9191,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9204,7 +9211,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9224,7 +9231,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9244,7 +9251,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9265,7 +9272,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9286,7 +9293,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9307,7 +9314,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9328,7 +9335,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9349,7 +9356,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9370,7 +9377,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9391,7 +9398,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9412,7 +9419,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9433,7 +9440,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9454,7 +9461,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9475,7 +9482,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9496,7 +9503,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9517,7 +9524,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9538,7 +9545,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9559,7 +9566,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9580,7 +9587,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9601,7 +9608,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9622,7 +9629,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9643,7 +9650,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9664,7 +9671,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9673,7 +9680,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9682,7 +9689,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9691,7 +9698,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9700,7 +9707,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9709,7 +9716,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9718,7 +9725,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9727,7 +9734,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9736,7 +9743,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9745,7 +9752,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9754,7 +9761,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9763,7 +9770,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9772,7 +9779,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9781,7 +9788,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9790,7 +9797,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9799,7 +9806,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9808,7 +9815,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9817,7 +9824,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9826,7 +9833,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9835,7 +9842,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9844,7 +9851,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9853,7 +9860,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9862,7 +9869,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9871,7 +9878,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9880,7 +9887,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9889,7 +9896,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9898,7 +9905,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9907,7 +9914,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9916,7 +9923,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9925,7 +9932,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
